--- a/doc/schedule.xlsx
+++ b/doc/schedule.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Plan1!$A:$O</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Atividades</t>
   </si>
@@ -97,6 +100,36 @@
   </si>
   <si>
     <t>Legenda</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Fev</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Abr</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Ago</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dez</t>
   </si>
 </sst>
 </file>
@@ -120,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,8 +176,14 @@
         <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -167,92 +206,41 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,296 +542,681 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R10"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="M1" sqref="M1:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="9.7109375" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="16" width="9.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="10">
+        <v>41456</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10">
+        <v>41821</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="10">
+        <v>41609</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10">
+        <v>41649</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="10">
+        <v>41680</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10">
+        <v>41708</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="10">
+        <v>41649</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10">
+        <v>41708</v>
+      </c>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10">
+        <v>41708</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10">
+        <v>41821</v>
+      </c>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="10">
+        <v>41821</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10">
+        <v>41821</v>
+      </c>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="10">
+        <v>41821</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10">
+        <v>41913</v>
+      </c>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="10">
+        <v>41913</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10">
+        <v>41983</v>
+      </c>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9">
+        <v>2013</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>2</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>3</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>4</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>5</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>7</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>8</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9">
         <v>2014</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="Q1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="3" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>3</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>4</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>5</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>6</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>7</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>41456</v>
-      </c>
-      <c r="C3" s="5">
-        <v>41821</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="8"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>41609</v>
-      </c>
-      <c r="C4" s="5">
-        <v>41649</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="8"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>41680</v>
-      </c>
-      <c r="C5" s="5">
-        <v>41708</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>41649</v>
-      </c>
-      <c r="C6" s="5">
-        <v>41708</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="5">
-        <v>41708</v>
-      </c>
-      <c r="C7" s="5">
-        <v>41821</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="5">
-        <v>41821</v>
-      </c>
-      <c r="C8" s="5">
-        <v>41821</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="5">
-        <v>41821</v>
-      </c>
-      <c r="C9" s="5">
-        <v>41913</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="8"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="13">
-        <v>41913</v>
-      </c>
-      <c r="C10" s="13">
-        <v>41983</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D1:O1"/>
+  <mergeCells count="36">
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="M1:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
